--- a/Inf/Lab5/Output.xlsx
+++ b/Inf/Lab5/Output.xlsx
@@ -34,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -43,86 +43,71 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="00FF0000"/>
+      <left style="medium">
+        <color rgb="000000FF"/>
       </left>
-      <right style="thick">
-        <color rgb="00FF0000"/>
-      </right>
-      <top style="thick">
-        <color rgb="00FF0000"/>
+      <top style="medium">
+        <color rgb="000000FF"/>
       </top>
-      <bottom style="thick">
-        <color rgb="00FF0000"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="000000FF"/>
+      </left>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="000000FF"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="000000FF"/>
       </bottom>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="00FF0000"/>
-      </left>
+      <right style="medium">
+        <color rgb="000000FF"/>
+      </right>
+      <top style="medium">
+        <color rgb="000000FF"/>
+      </top>
     </border>
     <border>
-      <right style="thick">
-        <color rgb="00FF0000"/>
+      <right style="medium">
+        <color rgb="000000FF"/>
       </right>
     </border>
     <border>
-      <top style="thick">
-        <color rgb="00FF0000"/>
+      <right style="medium">
+        <color rgb="000000FF"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="000000FF"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="000000FF"/>
       </top>
     </border>
     <border>
-      <bottom style="thick">
-        <color rgb="00FF0000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="00FF0000"/>
-      </left>
-      <bottom style="thick">
-        <color rgb="00FF0000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="00FF0000"/>
-      </left>
-      <top style="thick">
-        <color rgb="00FF0000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="00FF0000"/>
-      </right>
-      <top style="thick">
-        <color rgb="00FF0000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="00FF0000"/>
-      </right>
-      <bottom style="thick">
-        <color rgb="00FF0000"/>
+      <bottom style="medium">
+        <color rgb="000000FF"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -488,394 +473,206 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="2" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="3" customWidth="1" min="6" max="6"/>
-    <col width="3" customWidth="1" min="7" max="7"/>
-    <col width="3" customWidth="1" min="8" max="8"/>
-    <col width="3" customWidth="1" min="9" max="9"/>
-    <col width="3" customWidth="1" min="10" max="10"/>
-    <col width="3" customWidth="1" min="11" max="11"/>
-    <col width="3" customWidth="1" min="12" max="12"/>
-    <col width="3" customWidth="1" min="13" max="13"/>
-    <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="3" customWidth="1" min="15" max="15"/>
-    <col width="3" customWidth="1" min="16" max="16"/>
-    <col width="3" customWidth="1" min="17" max="17"/>
-    <col width="3" customWidth="1" min="18" max="18"/>
-    <col width="3" customWidth="1" min="19" max="19"/>
-    <col width="3" customWidth="1" min="20" max="20"/>
-    <col width="3" customWidth="1" min="21" max="21"/>
-    <col width="3" customWidth="1" min="22" max="22"/>
-    <col width="3" customWidth="1" min="23" max="23"/>
-    <col width="3" customWidth="1" min="24" max="24"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>X1=</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>A=</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" t="n">
         <v>3307</v>
       </c>
-      <c r="D1" s="2" t="inlineStr"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>B1=</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J1" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K1" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N1" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="P1" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S1" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T1" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="U1" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V1" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W1" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X1" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="inlineStr"/>
+      <c r="M1" t="inlineStr"/>
+      <c r="N1" t="inlineStr"/>
+      <c r="O1" t="inlineStr"/>
+      <c r="P1" t="inlineStr"/>
+      <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr"/>
+      <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>X2=</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
         <is>
           <t>C=</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" t="n">
         <v>20458</v>
       </c>
-      <c r="D2" s="5" t="inlineStr"/>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>B2=</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>X3=</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>A+C=</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>23765</v>
-      </c>
-      <c r="D3" s="5" t="inlineStr"/>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>B3=</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>X4=</t>
+          <t>X1=</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>A+C+C=</t>
+          <t>A=</t>
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44223</v>
-      </c>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>B4=</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="6" t="n">
+        <v>3307</v>
+      </c>
+      <c r="D4" s="1" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>B1=</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>X5=</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>C-A=</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>17151</v>
-      </c>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>B5=</t>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>X2=</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>C=</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>20458</v>
+      </c>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>B2=</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -896,16 +693,16 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -922,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -933,33 +730,33 @@
         <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>1</v>
       </c>
-      <c r="X5" s="6" t="n">
-        <v>1</v>
+      <c r="X5" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>X6=</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>65536-X4=</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>21313</v>
-      </c>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>B6=</t>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>X3=</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>A+C=</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>23765</v>
+      </c>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>B3=</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -980,16 +777,16 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -997,7 +794,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -1006,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1017,46 +814,46 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
-      <c r="X6" s="6" t="n">
+      <c r="X6" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>X7=</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>-X1=</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>-3307</v>
-      </c>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>B7=</t>
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>X4=</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>A+C+C=</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>44223</v>
+      </c>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>B4=</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1064,16 +861,16 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1081,13 +878,13 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1098,49 +895,49 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>X8=</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>-X2=</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>-20458</v>
-      </c>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>B8=</t>
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>X5=</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>C-A=</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>17151</v>
+      </c>
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>B5=</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1154,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1165,13 +962,13 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1182,7 +979,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -1190,41 +987,41 @@
       <c r="W8" t="n">
         <v>1</v>
       </c>
-      <c r="X8" s="6" t="n">
-        <v>0</v>
+      <c r="X8" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>X9=</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>-X3=</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>-23765</v>
-      </c>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>B9=</t>
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>X6=</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>65536-X4=</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>21313</v>
+      </c>
+      <c r="D9" s="4" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>B6=</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1252,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,46 +1063,46 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>X10=</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>-X4=</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>-44223</v>
-      </c>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>B10=</t>
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>X7=</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>-X1=</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>-3307</v>
+      </c>
+      <c r="D10" s="4" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>B7=</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1336,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1353,33 +1150,33 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
-      <c r="X10" s="6" t="n">
+      <c r="X10" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>X11=</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>-X5=</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>-17151</v>
-      </c>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>B11=</t>
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>X8=</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>-X2=</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-20458</v>
+      </c>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>B8=</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1400,16 +1197,16 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1426,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1437,96 +1234,348 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="6" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>X9=</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>-X3=</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>-23765</v>
+      </c>
+      <c r="D12" s="4" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>B9=</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>X10=</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>-X4=</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>-44223</v>
+      </c>
+      <c r="D13" s="4" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>B10=</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>X11=</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>-X5=</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>-17151</v>
+      </c>
+      <c r="D14" s="4" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>B11=</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>X12=</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>-X6=</t>
         </is>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C15" s="6" t="n">
         <v>-21313</v>
       </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr">
         <is>
           <t>B12=</t>
         </is>
       </c>
-      <c r="F12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="P12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="9" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="U12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" s="8" t="n">
+      <c r="F15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="P15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="8" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="U15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" s="7" t="n">
         <v>1</v>
       </c>
     </row>
